--- a/output/3_Regression/c08/c08table_rmse.xlsx
+++ b/output/3_Regression/c08/c08table_rmse.xlsx
@@ -441,7 +441,7 @@
         <v>1.221739774262221</v>
       </c>
       <c r="G2">
-        <v>2.533776720060586</v>
+        <v>2.533776720060583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>1.02999752984257</v>
       </c>
       <c r="G3">
-        <v>1.976349929791766</v>
+        <v>1.976349929791764</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>0.8927441397027726</v>
       </c>
       <c r="G4">
-        <v>1.812471611439726</v>
+        <v>1.812471611439725</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>0.7571456207674638</v>
       </c>
       <c r="G5">
-        <v>1.707909514370699</v>
+        <v>1.707909514370698</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>0.7097197352741988</v>
       </c>
       <c r="G6">
-        <v>1.620317405148187</v>
+        <v>1.620317405148186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -579,7 +579,7 @@
         <v>0.5347516733231366</v>
       </c>
       <c r="G8">
-        <v>1.496281110723898</v>
+        <v>1.496281110723897</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>0.4542193402181159</v>
       </c>
       <c r="G9">
-        <v>1.451649856114054</v>
+        <v>1.451649856114053</v>
       </c>
     </row>
     <row r="10" spans="1:7">
